--- a/main/media/bot/Клиенты зала.xlsx
+++ b/main/media/bot/Клиенты зала.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bog\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\telegrm_bot_fit\main\media\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C48BEC8-C557-48C1-B1E7-978C1ACBA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542033AF-C9CC-449A-9EEF-021D8EFB3B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Номер карты</t>
   </si>
@@ -61,6 +70,12 @@
   </si>
   <si>
     <t>Грошевская</t>
+  </si>
+  <si>
+    <t>7-953-753-63-17</t>
+  </si>
+  <si>
+    <t>7-918-683-35-65</t>
   </si>
 </sst>
 </file>
@@ -388,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -442,8 +459,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>89186833565</v>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -459,8 +476,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>89537536317</v>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
